--- a/ch_12/contestants_cleaned.xlsx
+++ b/ch_12/contestants_cleaned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
   <si>
     <t>email</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>smehaffey0@creativecommons.org</t>
-  </si>
-  <si>
-    <t>bbenham2@xrea.com</t>
-  </si>
-  <si>
-    <t>jagostini4@wordpress.org</t>
   </si>
   <si>
     <t>kbridgnell5@webnode.com</t>
@@ -659,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,10 +705,10 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -728,28 +722,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D3">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>19.8</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -760,25 +754,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D4">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -786,28 +780,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="D5">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="E5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>32.2</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -815,28 +809,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="D6">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>32.3</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -844,28 +838,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="D7">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
-        <v>26.2</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -873,28 +867,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="D8">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>27.9</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -902,28 +896,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="D9">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>34.3</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -931,28 +925,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
+        <v>479</v>
+      </c>
+      <c r="D10">
         <v>477</v>
       </c>
-      <c r="D10">
-        <v>471</v>
-      </c>
       <c r="E10">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>24.2</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -963,25 +957,25 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="D11">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>33.5</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -989,28 +983,28 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D12">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>35.4</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1018,28 +1012,28 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="D13">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>27.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1047,28 +1041,28 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D14">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>30.2</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1076,28 +1070,28 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D15">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>21.5</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1108,25 +1102,25 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D16">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E16">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>27.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1134,28 +1128,28 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="D17">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>29.4</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1163,28 +1157,28 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="D18">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>24</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1195,25 +1189,25 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="D19">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="E19">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>19.9</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1221,28 +1215,28 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="D20">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>27.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1253,25 +1247,25 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="D21">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="E21">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21">
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1282,25 +1276,25 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="D22">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="E22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>18.8</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1308,28 +1302,28 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D23">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
       <c r="I23">
-        <v>28.5</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1337,28 +1331,28 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="D24">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>21.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1366,28 +1360,28 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="D25">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>29.1</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1395,28 +1389,28 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D26">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="E26">
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>14.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1424,28 +1418,28 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="D27">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="E27">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>34.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1456,25 +1450,25 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D28">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="E28">
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>24</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1482,28 +1476,28 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="D29">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>21.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1511,28 +1505,28 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>493</v>
+        <v>409</v>
       </c>
       <c r="D30">
-        <v>482</v>
+        <v>398</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>29.1</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1543,25 +1537,25 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="D31">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="E31">
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
         <v>93</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>26</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,28 +1563,28 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="D32">
-        <v>398</v>
+        <v>493</v>
       </c>
       <c r="E32">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
         <v>93</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>26.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1598,28 +1592,28 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D33">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>15.8</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1627,28 +1621,28 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="D34">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34">
-        <v>30</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1659,25 +1653,25 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="D35">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>34.5</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,28 +1679,28 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D36">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>27.2</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1717,25 +1711,25 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D37">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E37">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>23.3</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1743,19 +1737,19 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="D38">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
         <v>93</v>
@@ -1764,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="I38">
-        <v>37.3</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1775,25 +1769,25 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="D39">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="E39">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>32.1</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,28 +1795,28 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D40">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E40">
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40">
-        <v>34.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1830,28 +1824,28 @@
         <v>48</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="D41">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="E41">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
         <v>93</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>26.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,28 +1853,28 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D42">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
         <v>93</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>29</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1888,28 +1882,28 @@
         <v>50</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="D43">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="E43">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>10</v>
       </c>
       <c r="I43">
-        <v>30</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1920,25 +1914,25 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D44">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
         <v>92</v>
       </c>
-      <c r="G44" t="s">
-        <v>95</v>
-      </c>
       <c r="H44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>26.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1946,28 +1940,28 @@
         <v>52</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D45">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E45">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>39.6</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,28 +1969,28 @@
         <v>53</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="D46">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>34</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,28 +1998,28 @@
         <v>54</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="D47">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="E47">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H47">
         <v>6</v>
       </c>
       <c r="I47">
-        <v>22.8</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2033,28 +2027,28 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="D48">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="E48">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I48">
-        <v>28.8</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2062,28 +2056,28 @@
         <v>56</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D49">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="E49">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>31.5</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2094,25 +2088,25 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="D50">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>35.3</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2120,28 +2114,28 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="D51">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="E51">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I51">
-        <v>29.4</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2152,25 +2146,25 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="D52">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="E52">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I52">
-        <v>26.9</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2181,25 +2175,25 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D53">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="E53">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53">
-        <v>26.2</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,28 +2201,28 @@
         <v>61</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D54">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="E54">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I54">
-        <v>30.4</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,28 +2230,28 @@
         <v>62</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="D55">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>30.5</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,16 +2262,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="D56">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="E56">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
         <v>93</v>
@@ -2286,7 +2280,7 @@
         <v>9</v>
       </c>
       <c r="I56">
-        <v>40.9</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2294,28 +2288,28 @@
         <v>64</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D57">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I57">
-        <v>33.4</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2323,28 +2317,28 @@
         <v>65</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D58">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="E58">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>27.3</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2355,25 +2349,25 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="D59">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E59">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>27.2</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2381,28 +2375,28 @@
         <v>67</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="D60">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="E60">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2413,25 +2407,25 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D61">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="E61">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>21.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2439,28 +2433,28 @@
         <v>69</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="D62">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2468,28 +2462,28 @@
         <v>70</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D63">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="E63">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>27</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2497,28 +2491,28 @@
         <v>71</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D64">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E64">
         <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
         <v>93</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>25.8</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2526,28 +2520,28 @@
         <v>72</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="D65">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="E65">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
       <c r="I65">
-        <v>23.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2558,25 +2552,25 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D66">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E66">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>32.8</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2584,28 +2578,28 @@
         <v>74</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="D67">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="E67">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I67">
-        <v>36</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2616,25 +2610,25 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="D68">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="E68">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>22.5</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2642,28 +2636,28 @@
         <v>76</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D69">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="E69">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I69">
-        <v>28.1</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2674,25 +2668,25 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D70">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E70">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>20.8</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2703,25 +2697,25 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D71">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="E71">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H71">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>33.7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2732,25 +2726,25 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="D72">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="E72">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I72">
-        <v>28.4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2761,25 +2755,25 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D73">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E73">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>32.9</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2787,28 +2781,28 @@
         <v>81</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="D74">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="E74">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I74">
-        <v>28</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2816,28 +2810,28 @@
         <v>82</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="D75">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="E75">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>33.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2845,28 +2839,28 @@
         <v>83</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="D76">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="E76">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H76">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>33.7</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2874,28 +2868,28 @@
         <v>84</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D77">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E77">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>31</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2903,28 +2897,28 @@
         <v>85</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="D78">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="E78">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s">
         <v>93</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>28.2</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2935,25 +2929,25 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="D79">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="E79">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I79">
-        <v>27.1</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2961,28 +2955,28 @@
         <v>87</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D80">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E80">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>18.8</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2990,85 +2984,27 @@
         <v>88</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D81">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="E81">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s">
         <v>92</v>
       </c>
-      <c r="G81" t="s">
-        <v>93</v>
-      </c>
       <c r="H81">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>494</v>
-      </c>
-      <c r="D82">
-        <v>501</v>
-      </c>
-      <c r="E82">
-        <v>32</v>
-      </c>
-      <c r="F82" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s">
-        <v>93</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>463</v>
-      </c>
-      <c r="D83">
-        <v>455</v>
-      </c>
-      <c r="E83">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" t="s">
-        <v>94</v>
-      </c>
-      <c r="H83">
-        <v>5</v>
-      </c>
-      <c r="I83">
         <v>26.1</v>
       </c>
     </row>
